--- a/daily-reported-data-xlsx/covid-19-18-03-2020.xlsx
+++ b/daily-reported-data-xlsx/covid-19-18-03-2020.xlsx
@@ -1,24 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Dropbox/covid-19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A970F43-83EB-E549-A898-293DEF20AECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="18">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>Aragon</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>Canarias</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Castilla Leon</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>Pais Vasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baleares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castilla La Mancha </t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,11 +132,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +218,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +270,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,3307 +463,3493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="I299" sqref="I299"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CCAA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>counts</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43888</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43889</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43890</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43891</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43892</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43893</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43894</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43895</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43896</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43897</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43898</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43899</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43900</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43901</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43902</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43903</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>104</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43904</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43905</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>168</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43906</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B20" t="s">
+        <v>3</v>
       </c>
       <c r="C20">
         <v>117</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43907</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B21" t="s">
+        <v>3</v>
       </c>
       <c r="C21">
         <v>129</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43908</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
+      <c r="B22" t="s">
+        <v>3</v>
       </c>
       <c r="C22">
         <v>176</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43888</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43889</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43890</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43891</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43892</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43893</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43894</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43895</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43896</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B31" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43897</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43898</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43899</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34">
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43900</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43901</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43902</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43903</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43904</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43905</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
         <v>67</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43906</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
         <v>27</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43907</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
         <v>33</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43908</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Aragon</t>
-        </is>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43888</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43889</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B45" t="s">
+        <v>5</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43890</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B46" t="s">
+        <v>5</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43891</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B47" t="s">
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43892</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B48" t="s">
+        <v>5</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43893</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B49" t="s">
+        <v>5</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43894</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43895</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B51" t="s">
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43896</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B52" t="s">
+        <v>5</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43897</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B53" t="s">
+        <v>5</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43898</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B54" t="s">
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43899</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B55" t="s">
+        <v>5</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43900</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B56" t="s">
+        <v>5</v>
       </c>
       <c r="C56">
         <v>21</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43901</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B57" t="s">
+        <v>5</v>
       </c>
       <c r="C57">
         <v>11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43902</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B58" t="s">
+        <v>5</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43903</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B59" t="s">
+        <v>5</v>
       </c>
       <c r="C59">
         <v>24</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43904</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B60" t="s">
+        <v>5</v>
       </c>
       <c r="C60">
         <v>19</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43905</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B61" t="s">
+        <v>5</v>
       </c>
       <c r="C61">
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43906</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B62" t="s">
+        <v>5</v>
       </c>
       <c r="C62">
         <v>40</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43907</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B63" t="s">
+        <v>5</v>
       </c>
       <c r="C63">
         <v>16</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43908</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Asturias</t>
-        </is>
+      <c r="B64" t="s">
+        <v>5</v>
       </c>
       <c r="C64">
         <v>49</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43888</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43889</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43890</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43891</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43892</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B69" t="s">
+        <v>6</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43893</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43894</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43895</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B72" t="s">
+        <v>6</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43896</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43897</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43898</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43899</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43900</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43901</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
         <v>12</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43902</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B79" t="s">
+        <v>6</v>
       </c>
       <c r="C79">
         <v>14</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43903</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
         <v>19</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43904</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B81" t="s">
+        <v>6</v>
       </c>
       <c r="C81">
         <v>20</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43905</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B82" t="s">
+        <v>6</v>
       </c>
       <c r="C82">
         <v>19</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43906</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B83" t="s">
+        <v>6</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43907</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
         <v>29</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43908</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Canarias</t>
-        </is>
+      <c r="B85" t="s">
+        <v>6</v>
       </c>
       <c r="C85">
         <v>33</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43888</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43889</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B87" t="s">
+        <v>7</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43890</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B88" t="s">
+        <v>7</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43891</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B89" t="s">
+        <v>7</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43892</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B90" t="s">
+        <v>7</v>
       </c>
       <c r="C90">
         <v>9</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43893</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B91" t="s">
+        <v>7</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43894</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B92" t="s">
+        <v>7</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43895</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B93" t="s">
+        <v>7</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43896</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B94" t="s">
+        <v>7</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43897</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B95" t="s">
+        <v>7</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43898</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B96" t="s">
+        <v>7</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43899</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B97" t="s">
+        <v>7</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43900</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B98" t="s">
+        <v>7</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43901</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B99" t="s">
+        <v>7</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43902</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B100" t="s">
+        <v>7</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43903</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B101" t="s">
+        <v>7</v>
       </c>
       <c r="C101">
         <v>13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43904</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B102" t="s">
+        <v>7</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43905</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B103" t="s">
+        <v>7</v>
       </c>
       <c r="C103">
         <v>20</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43906</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B104" t="s">
+        <v>7</v>
       </c>
       <c r="C104">
         <v>7</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43907</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B105" t="s">
+        <v>7</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43908</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Cantabria</t>
-        </is>
+      <c r="B106" t="s">
+        <v>7</v>
       </c>
       <c r="C106">
         <v>10</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43888</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B107" t="s">
+        <v>8</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43889</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B108" t="s">
+        <v>8</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43890</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B109" t="s">
+        <v>8</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43891</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B110" t="s">
+        <v>8</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43892</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B111" t="s">
+        <v>8</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43893</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B112" t="s">
+        <v>8</v>
       </c>
       <c r="C112">
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43894</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B113" t="s">
+        <v>8</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43895</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B114" t="s">
+        <v>8</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43896</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B115" t="s">
+        <v>8</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43897</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B116" t="s">
+        <v>8</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43898</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B117" t="s">
+        <v>8</v>
       </c>
       <c r="C117">
         <v>8</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43899</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B118" t="s">
+        <v>8</v>
       </c>
       <c r="C118">
         <v>11</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43900</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B119" t="s">
+        <v>8</v>
       </c>
       <c r="C119">
         <v>23</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43901</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B120" t="s">
+        <v>8</v>
       </c>
       <c r="C120">
         <v>15</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43902</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B121" t="s">
+        <v>8</v>
       </c>
       <c r="C121">
         <v>21</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43903</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B122" t="s">
+        <v>8</v>
       </c>
       <c r="C122">
         <v>77</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43904</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B123" t="s">
+        <v>8</v>
       </c>
       <c r="C123">
         <v>54</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43905</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B124" t="s">
+        <v>8</v>
       </c>
       <c r="C124">
         <v>69</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43906</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B125" t="s">
+        <v>8</v>
       </c>
       <c r="C125">
         <v>42</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43907</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B126" t="s">
+        <v>8</v>
       </c>
       <c r="C126">
         <v>97</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43908</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Castilla Leon</t>
-        </is>
+      <c r="B127" t="s">
+        <v>8</v>
       </c>
       <c r="C127">
         <v>237</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43888</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B128" t="s">
+        <v>9</v>
       </c>
       <c r="C128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43889</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B129" t="s">
+        <v>9</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43890</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B130" t="s">
+        <v>9</v>
       </c>
       <c r="C130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43891</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B131" t="s">
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43892</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B132" t="s">
+        <v>9</v>
       </c>
       <c r="C132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43893</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B133" t="s">
+        <v>9</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43894</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B134" t="s">
+        <v>9</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43895</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B135" t="s">
+        <v>9</v>
       </c>
       <c r="C135">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43896</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B136" t="s">
+        <v>9</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43897</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B137" t="s">
+        <v>9</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43898</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B138" t="s">
+        <v>9</v>
       </c>
       <c r="C138">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43899</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B139" t="s">
+        <v>9</v>
       </c>
       <c r="C139">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43900</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B140" t="s">
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43901</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B141" t="s">
+        <v>9</v>
       </c>
       <c r="C141">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43902</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B142" t="s">
+        <v>9</v>
       </c>
       <c r="C142">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43903</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B143" t="s">
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43904</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B144" t="s">
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43905</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B145" t="s">
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43906</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B146" t="s">
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43907</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B147" t="s">
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43908</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Catalunya</t>
-        </is>
+      <c r="B148" t="s">
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43888</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B149" t="s">
+        <v>10</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43889</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B150" t="s">
+        <v>10</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43890</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B151" t="s">
+        <v>10</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43891</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B152" t="s">
+        <v>10</v>
       </c>
       <c r="C152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43892</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B153" t="s">
+        <v>10</v>
       </c>
       <c r="C153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43893</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B154" t="s">
+        <v>10</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43894</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B155" t="s">
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43895</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B156" t="s">
+        <v>10</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43896</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B157" t="s">
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43897</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B158" t="s">
+        <v>10</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43898</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B159" t="s">
+        <v>10</v>
       </c>
       <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43899</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B160" t="s">
+        <v>10</v>
       </c>
       <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43900</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B161" t="s">
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43901</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B162" t="s">
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43902</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B163" t="s">
+        <v>10</v>
       </c>
       <c r="C163">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43903</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B164" t="s">
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43904</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B165" t="s">
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43905</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B166" t="s">
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43906</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B167" t="s">
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>43907</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B168" t="s">
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43908</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Extremadura</t>
-        </is>
+      <c r="B169" t="s">
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43888</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B170" t="s">
+        <v>11</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>43889</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B171" t="s">
+        <v>11</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43890</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B172" t="s">
+        <v>11</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>43891</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B173" t="s">
+        <v>11</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43892</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B174" t="s">
+        <v>11</v>
       </c>
       <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>43893</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B175" t="s">
+        <v>11</v>
       </c>
       <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43894</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B176" t="s">
+        <v>11</v>
       </c>
       <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43895</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B177" t="s">
+        <v>11</v>
       </c>
       <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>43896</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B178" t="s">
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43897</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B179" t="s">
+        <v>11</v>
       </c>
       <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>43898</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B180" t="s">
+        <v>11</v>
       </c>
       <c r="C180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43899</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B181" t="s">
+        <v>11</v>
       </c>
       <c r="C181">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43900</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B182" t="s">
+        <v>11</v>
       </c>
       <c r="C182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>43901</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B183" t="s">
+        <v>11</v>
       </c>
       <c r="C183">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43902</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B184" t="s">
+        <v>11</v>
       </c>
       <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>43903</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B185" t="s">
+        <v>11</v>
       </c>
       <c r="C185">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43904</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B186" t="s">
+        <v>11</v>
       </c>
       <c r="C186">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>43905</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B187" t="s">
+        <v>11</v>
       </c>
       <c r="C187">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>43906</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B188" t="s">
+        <v>11</v>
       </c>
       <c r="C188">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>43907</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B189" t="s">
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>43908</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Galicia</t>
-        </is>
+      <c r="B190" t="s">
+        <v>11</v>
       </c>
       <c r="C190">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>43888</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B191" t="s">
+        <v>12</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>43889</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B192" t="s">
+        <v>12</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>43890</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B193" t="s">
+        <v>12</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>43891</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B194" t="s">
+        <v>12</v>
       </c>
       <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>43892</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B195" t="s">
+        <v>12</v>
       </c>
       <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>43893</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B196" t="s">
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>43894</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B197" t="s">
+        <v>12</v>
       </c>
       <c r="C197">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>43895</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B198" t="s">
+        <v>12</v>
       </c>
       <c r="C198">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>43896</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B199" t="s">
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>43897</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B200" t="s">
+        <v>12</v>
       </c>
       <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>43898</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B201" t="s">
+        <v>12</v>
       </c>
       <c r="C201">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>43899</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B202" t="s">
+        <v>12</v>
       </c>
       <c r="C202">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>43900</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B203" t="s">
+        <v>12</v>
       </c>
       <c r="C203">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>43901</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B204" t="s">
+        <v>12</v>
       </c>
       <c r="C204">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>43902</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B205" t="s">
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>43903</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B206" t="s">
+        <v>12</v>
       </c>
       <c r="C206">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>43904</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B207" t="s">
+        <v>12</v>
       </c>
       <c r="C207">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>43905</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B208" t="s">
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>43906</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B209" t="s">
+        <v>12</v>
       </c>
       <c r="C209">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>43907</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B210" t="s">
+        <v>12</v>
       </c>
       <c r="C210">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>43908</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>La Rioja</t>
-        </is>
+      <c r="B211" t="s">
+        <v>12</v>
       </c>
       <c r="C211">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>43888</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B212" t="s">
+        <v>13</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>43889</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B213" t="s">
+        <v>13</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>43890</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B214" t="s">
+        <v>13</v>
       </c>
       <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>43891</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B215" t="s">
+        <v>13</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>43892</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B216" t="s">
+        <v>13</v>
       </c>
       <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>43893</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B217" t="s">
+        <v>13</v>
       </c>
       <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>43894</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B218" t="s">
+        <v>13</v>
       </c>
       <c r="C218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>43895</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B219" t="s">
+        <v>13</v>
       </c>
       <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>43896</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B220" t="s">
+        <v>13</v>
       </c>
       <c r="C220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>43897</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B221" t="s">
+        <v>13</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>43898</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B222" t="s">
+        <v>13</v>
       </c>
       <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>43899</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B223" t="s">
+        <v>13</v>
       </c>
       <c r="C223">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>43900</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B224" t="s">
+        <v>13</v>
       </c>
       <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>43901</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B225" t="s">
+        <v>13</v>
       </c>
       <c r="C225">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>43902</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B226" t="s">
+        <v>13</v>
       </c>
       <c r="C226">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>43903</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B227" t="s">
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>43904</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B228" t="s">
+        <v>13</v>
       </c>
       <c r="C228">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>43905</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B229" t="s">
+        <v>13</v>
       </c>
       <c r="C229">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>43906</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B230" t="s">
+        <v>13</v>
       </c>
       <c r="C230">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>43907</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B231" t="s">
+        <v>13</v>
       </c>
       <c r="C231">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>43908</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Navarra</t>
-        </is>
+      <c r="B232" t="s">
+        <v>13</v>
       </c>
       <c r="C232">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>43888</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B233" t="s">
+        <v>14</v>
       </c>
       <c r="C233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>43889</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B234" t="s">
+        <v>14</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>43890</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B235" t="s">
+        <v>14</v>
       </c>
       <c r="C235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>43891</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B236" t="s">
+        <v>14</v>
       </c>
       <c r="C236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>43892</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B237" t="s">
+        <v>14</v>
       </c>
       <c r="C237">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>43893</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B238" t="s">
+        <v>14</v>
       </c>
       <c r="C238">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>43894</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B239" t="s">
+        <v>14</v>
       </c>
       <c r="C239">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>43895</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B240" t="s">
+        <v>14</v>
       </c>
       <c r="C240">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>43896</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B241" t="s">
+        <v>14</v>
       </c>
       <c r="C241">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>43897</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B242" t="s">
+        <v>14</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>43898</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B243" t="s">
+        <v>14</v>
       </c>
       <c r="C243">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>43899</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B244" t="s">
+        <v>14</v>
       </c>
       <c r="C244">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>43900</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B245" t="s">
+        <v>14</v>
       </c>
       <c r="C245">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>43901</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B246" t="s">
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>43902</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B247" t="s">
+        <v>14</v>
       </c>
       <c r="C247">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>43903</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B248" t="s">
+        <v>14</v>
       </c>
       <c r="C248">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>43904</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B249" t="s">
+        <v>14</v>
       </c>
       <c r="C249">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>43905</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B250" t="s">
+        <v>14</v>
       </c>
       <c r="C250">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>43906</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B251" t="s">
+        <v>14</v>
       </c>
       <c r="C251">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>43907</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B252" t="s">
+        <v>14</v>
       </c>
       <c r="C252">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>43908</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Pais Vasco</t>
-        </is>
+      <c r="B253" t="s">
+        <v>14</v>
       </c>
       <c r="C253">
-        <v>208</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B278" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B279" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B280" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B282" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B283" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B284" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B289" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B290" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B295" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B296" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B300" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B302" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B303" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B309" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B310" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B311" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B312" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B313" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B315" t="s">
+        <v>17</v>
+      </c>
+      <c r="C315">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B316" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
